--- a/tableau1.xlsx
+++ b/tableau1.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="batch_size" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -423,4 +424,268 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>batch_size</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>nb_epochs</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>learning_rate</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>input_size</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>hidden_size</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>output_size</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>weight_init_range</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>(-0,001, 0,001)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2,300947291325009</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2,294403111730303</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>10,842857142857143</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>(-0,001, 0,001)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2,1130002497990454</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1,67679297146414</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>49,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>(-0,001, 0,001)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1,1887392897943094</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0,8626764507731423</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>76,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0,0001</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>(-0,001, 0,001)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0,7286671547463851</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0,6031365904728216</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>83,94285714285714</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>